--- a/Templates/Stakeholder_Input_Vorlage_V1.xlsx
+++ b/Templates/Stakeholder_Input_Vorlage_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0793751-BE1F-4ED3-AD1C-320D41DA7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C0793751-BE1F-4ED3-AD1C-320D41DA7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD072740-0D59-43A6-85EE-41205F03E352}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einführung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="120">
   <si>
     <t>Anleitung zur Verwendung der Excel-Tabelle zur Wesentlichkeitsanalyse</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Senden Sie die vollständig ausgefüllte Excel-Tabelle an die vorgegebene Adresse oder den Kontakt zurück, um die Datenerhebung abzuschließen.</t>
   </si>
   <si>
-    <t>BMW</t>
-  </si>
-  <si>
     <t>ESRS</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
   </si>
   <si>
     <t>Vorkomnisse</t>
-  </si>
-  <si>
-    <t>Quelle</t>
   </si>
   <si>
     <t>Stakeholder- oder Unternehmensname:</t>
@@ -705,10 +699,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Quelle"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:D363" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:D363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Thema"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Unterthema"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Unter-Unterthema"/>
@@ -719,10 +712,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E757ADC-EBE3-470D-9B18-C16E2A5B0321}" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7C193DC6-5D07-4BEF-98DF-C2650D4ABDAF}" name="Quelle"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E757ADC-EBE3-470D-9B18-C16E2A5B0321}" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:D363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{9901726A-75F7-41DF-A050-015B601BE4A2}" name="Thema"/>
     <tableColumn id="3" xr3:uid="{6928993E-E959-4FAE-863A-CCB17BBA4FBA}" name="Unterthema"/>
     <tableColumn id="4" xr3:uid="{0C20B5BB-B6DB-4CFD-BBD4-C8CF03E00E50}" name="Unter-Unterthema"/>
@@ -1052,7 +1044,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,11 +1103,9 @@
     <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1134,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,77 +1139,77 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1227,10 +1217,10 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1238,10 +1228,10 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1249,10 +1239,10 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1260,10 +1250,10 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1271,10 +1261,10 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1282,23 +1272,23 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1306,10 +1296,10 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1317,10 +1307,10 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1328,10 +1318,10 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1339,181 +1329,181 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1521,10 +1511,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1532,759 +1522,759 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D34" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D35" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D36" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D38" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D39" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
       <c r="B40" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
       <c r="B46" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
       <c r="B48" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
       <c r="B49" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="C50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E62" s="9"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="D68" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="11"/>
       <c r="B70" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="D70" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="11"/>
       <c r="B71" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="D71" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
       <c r="B72" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="D72" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="11"/>
       <c r="B73" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="11"/>
       <c r="B74" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="11"/>
       <c r="B75" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
       <c r="B76" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="11"/>
       <c r="B77" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="11"/>
       <c r="B78" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="D79" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="D80" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
@@ -2292,10 +2282,10 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
       <c r="B89" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
@@ -2303,10 +2293,10 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="11"/>
       <c r="B90" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
@@ -2314,10 +2304,10 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="11"/>
       <c r="B91" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
@@ -2325,10 +2315,10 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="11"/>
       <c r="B92" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -2336,10 +2326,10 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="11"/>
       <c r="B93" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="11"/>
@@ -2347,10 +2337,10 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="11"/>
       <c r="B94" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
@@ -2432,25 +2422,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="56.6328125" customWidth="1"/>
+    <col min="3" max="3" width="66.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>12</v>
@@ -2461,30 +2450,27 @@
       <c r="D1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H4" s="4" t="s">
-        <v>24</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D201:D754 E2:E200">
+  <conditionalFormatting sqref="C201:C754 D2:D200">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2497,11 +2483,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H1:H4" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$B$14:$B$17</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$A$14:$A$17</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D201:D400 E2:E200" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>$H$1:$H$4</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C201:C400 D2:D200" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>$G$1:$G$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2513,25 +2499,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A8DE16-CC63-42DD-99B4-B45C5F1FF202}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="56.6328125" customWidth="1"/>
+    <col min="3" max="3" width="66.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>12</v>
@@ -2542,30 +2527,27 @@
       <c r="D1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H4" s="4" t="s">
-        <v>24</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D201:D754 E2:E200">
+  <conditionalFormatting sqref="C201:C754 D2:D200">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2578,11 +2560,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D201:D400 E2:E200" xr:uid="{AE73FFD9-80A4-44FC-94A2-E941D32948F2}">
-      <formula1>$H$1:$H$4</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C201:C400 D2:D200" xr:uid="{AE73FFD9-80A4-44FC-94A2-E941D32948F2}">
+      <formula1>$G$1:$G$4</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H1:H4" xr:uid="{29CC09CB-2B02-4562-9DED-5F479EBBF337}">
-      <formula1>$B$14:$B$17</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G4" xr:uid="{29CC09CB-2B02-4562-9DED-5F479EBBF337}">
+      <formula1>$A$14:$A$17</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
